--- a/Usuarios_internet.xlsx
+++ b/Usuarios_internet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Comunicaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\4-Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722F5383-8968-46CF-B402-67827A056141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8715865C-73CE-401A-AA63-ABD2B4A284D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,13 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="58">
-  <si>
-    <t>Ultima actualización: mayo 2024</t>
-  </si>
-  <si>
-    <t>Dirección General de Planeación</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="57">
   <si>
     <t>Periodo</t>
   </si>
@@ -213,6 +207,9 @@
   </si>
   <si>
     <t xml:space="preserve">  SICT. Subsecretaría de Comunicaciones y Transportes. Dirección General de Inclusión Digital y Redes de Telecomunicaciones. </t>
+  </si>
+  <si>
+    <t>Actualización: mayo 2024.</t>
   </si>
 </sst>
 </file>
@@ -499,9 +496,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -513,6 +507,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -544,6 +541,13 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -551,13 +555,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -613,7 +610,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:H197" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:H197" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
   <autoFilter ref="B5:H197" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
@@ -881,7 +878,7 @@
   <sheetData>
     <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -892,53 +889,53 @@
     <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" s="4"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="D4" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="2:14" s="25" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="F5" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="G5" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="H5" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>41</v>
       </c>
       <c r="I5" s="24"/>
       <c r="J5" s="28" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="N5" s="29" t="s">
         <v>46</v>
-      </c>
-      <c r="M5" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="29" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.35">
@@ -946,7 +943,7 @@
         <v>2023</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -985,7 +982,7 @@
         <v>2023</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="8">
         <v>4</v>
@@ -1024,7 +1021,7 @@
         <v>2023</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
@@ -1063,7 +1060,7 @@
         <v>2023</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -1102,7 +1099,7 @@
         <v>2023</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" s="10">
         <v>0</v>
@@ -1141,7 +1138,7 @@
         <v>2023</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
@@ -1180,7 +1177,7 @@
         <v>2023</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" s="10">
         <v>0</v>
@@ -1204,7 +1201,7 @@
         <v>2023</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -1229,7 +1226,7 @@
         <v>2023</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="10">
         <v>0</v>
@@ -1254,7 +1251,7 @@
         <v>2023</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -1279,7 +1276,7 @@
         <v>2023</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="10">
         <v>0</v>
@@ -1304,7 +1301,7 @@
         <v>2023</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -1329,7 +1326,7 @@
         <v>2023</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" s="10">
         <v>0</v>
@@ -1354,7 +1351,7 @@
         <v>2023</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19" s="8">
         <v>3</v>
@@ -1379,7 +1376,7 @@
         <v>2023</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="10">
         <v>0</v>
@@ -1404,7 +1401,7 @@
         <v>2023</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -1429,7 +1426,7 @@
         <v>2023</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" s="10">
         <v>0</v>
@@ -1454,7 +1451,7 @@
         <v>2023</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -1479,7 +1476,7 @@
         <v>2023</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D24" s="10">
         <v>0</v>
@@ -1504,7 +1501,7 @@
         <v>2023</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D25" s="8">
         <v>0</v>
@@ -1529,7 +1526,7 @@
         <v>2023</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D26" s="10">
         <v>1</v>
@@ -1554,7 +1551,7 @@
         <v>2023</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -1579,7 +1576,7 @@
         <v>2023</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D28" s="10">
         <v>0</v>
@@ -1604,7 +1601,7 @@
         <v>2023</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D29" s="8">
         <v>0</v>
@@ -1629,7 +1626,7 @@
         <v>2023</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D30" s="10">
         <v>0</v>
@@ -1654,7 +1651,7 @@
         <v>2023</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" s="8">
         <v>1</v>
@@ -1679,7 +1676,7 @@
         <v>2023</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32" s="10">
         <v>0</v>
@@ -1704,7 +1701,7 @@
         <v>2023</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D33" s="8">
         <v>0</v>
@@ -1729,7 +1726,7 @@
         <v>2023</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D34" s="10">
         <v>0</v>
@@ -1754,7 +1751,7 @@
         <v>2023</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D35" s="8">
         <v>0</v>
@@ -1779,7 +1776,7 @@
         <v>2023</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D36" s="10">
         <v>0</v>
@@ -1804,7 +1801,7 @@
         <v>2023</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D37" s="19">
         <v>0</v>
@@ -1829,7 +1826,7 @@
         <v>2022</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" s="10">
         <v>0</v>
@@ -1854,7 +1851,7 @@
         <v>2022</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" s="8">
         <v>4</v>
@@ -1879,7 +1876,7 @@
         <v>2022</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D40" s="10">
         <v>1</v>
@@ -1904,7 +1901,7 @@
         <v>2022</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D41" s="8">
         <v>0</v>
@@ -1929,7 +1926,7 @@
         <v>2022</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D42" s="10">
         <v>0</v>
@@ -1954,7 +1951,7 @@
         <v>2022</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D43" s="8">
         <v>0</v>
@@ -1979,7 +1976,7 @@
         <v>2022</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D44" s="10">
         <v>0</v>
@@ -2004,7 +2001,7 @@
         <v>2022</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D45" s="8">
         <v>0</v>
@@ -2029,7 +2026,7 @@
         <v>2022</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D46" s="10">
         <v>0</v>
@@ -2054,7 +2051,7 @@
         <v>2022</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D47" s="8">
         <v>0</v>
@@ -2079,7 +2076,7 @@
         <v>2022</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D48" s="10">
         <v>0</v>
@@ -2104,7 +2101,7 @@
         <v>2022</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D49" s="8">
         <v>0</v>
@@ -2129,7 +2126,7 @@
         <v>2022</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D50" s="10">
         <v>0</v>
@@ -2154,7 +2151,7 @@
         <v>2022</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D51" s="8">
         <v>3</v>
@@ -2179,7 +2176,7 @@
         <v>2022</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D52" s="10">
         <v>0</v>
@@ -2204,7 +2201,7 @@
         <v>2022</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D53" s="8">
         <v>0</v>
@@ -2229,7 +2226,7 @@
         <v>2022</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D54" s="10">
         <v>0</v>
@@ -2254,7 +2251,7 @@
         <v>2022</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D55" s="8">
         <v>0</v>
@@ -2279,7 +2276,7 @@
         <v>2022</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D56" s="10">
         <v>0</v>
@@ -2304,7 +2301,7 @@
         <v>2022</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D57" s="8">
         <v>0</v>
@@ -2329,7 +2326,7 @@
         <v>2022</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D58" s="10">
         <v>1</v>
@@ -2354,7 +2351,7 @@
         <v>2022</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D59" s="8">
         <v>1</v>
@@ -2379,7 +2376,7 @@
         <v>2022</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D60" s="10">
         <v>0</v>
@@ -2404,7 +2401,7 @@
         <v>2022</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D61" s="8">
         <v>0</v>
@@ -2429,7 +2426,7 @@
         <v>2022</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D62" s="10">
         <v>0</v>
@@ -2454,7 +2451,7 @@
         <v>2022</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D63" s="8">
         <v>1</v>
@@ -2479,7 +2476,7 @@
         <v>2022</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D64" s="10">
         <v>0</v>
@@ -2504,7 +2501,7 @@
         <v>2022</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D65" s="8">
         <v>0</v>
@@ -2529,7 +2526,7 @@
         <v>2022</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D66" s="10">
         <v>0</v>
@@ -2554,7 +2551,7 @@
         <v>2022</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D67" s="8">
         <v>0</v>
@@ -2579,7 +2576,7 @@
         <v>2022</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D68" s="10">
         <v>0</v>
@@ -2604,7 +2601,7 @@
         <v>2022</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D69" s="19">
         <v>0</v>
@@ -2629,7 +2626,7 @@
         <v>2021</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" s="10">
         <v>0</v>
@@ -2654,7 +2651,7 @@
         <v>2021</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" s="8">
         <v>4</v>
@@ -2679,7 +2676,7 @@
         <v>2021</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D72" s="10">
         <v>1</v>
@@ -2704,7 +2701,7 @@
         <v>2021</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D73" s="8">
         <v>0</v>
@@ -2729,7 +2726,7 @@
         <v>2021</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D74" s="10">
         <v>0</v>
@@ -2754,7 +2751,7 @@
         <v>2021</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D75" s="8">
         <v>0</v>
@@ -2779,7 +2776,7 @@
         <v>2021</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D76" s="10">
         <v>0</v>
@@ -2804,7 +2801,7 @@
         <v>2021</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D77" s="8">
         <v>0</v>
@@ -2829,7 +2826,7 @@
         <v>2021</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D78" s="10">
         <v>0</v>
@@ -2854,7 +2851,7 @@
         <v>2021</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D79" s="8">
         <v>0</v>
@@ -2879,7 +2876,7 @@
         <v>2021</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D80" s="10">
         <v>0</v>
@@ -2904,7 +2901,7 @@
         <v>2021</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D81" s="8">
         <v>0</v>
@@ -2929,7 +2926,7 @@
         <v>2021</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D82" s="10">
         <v>0</v>
@@ -2954,7 +2951,7 @@
         <v>2021</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D83" s="8">
         <v>1</v>
@@ -2979,7 +2976,7 @@
         <v>2021</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D84" s="10">
         <v>0</v>
@@ -3004,7 +3001,7 @@
         <v>2021</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D85" s="8">
         <v>0</v>
@@ -3029,7 +3026,7 @@
         <v>2021</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D86" s="10">
         <v>0</v>
@@ -3054,7 +3051,7 @@
         <v>2021</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D87" s="8">
         <v>0</v>
@@ -3079,7 +3076,7 @@
         <v>2021</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D88" s="10">
         <v>0</v>
@@ -3104,7 +3101,7 @@
         <v>2021</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D89" s="8">
         <v>0</v>
@@ -3129,7 +3126,7 @@
         <v>2021</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D90" s="10">
         <v>0</v>
@@ -3154,7 +3151,7 @@
         <v>2021</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D91" s="8">
         <v>1</v>
@@ -3179,7 +3176,7 @@
         <v>2021</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D92" s="10">
         <v>0</v>
@@ -3204,7 +3201,7 @@
         <v>2021</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D93" s="8">
         <v>0</v>
@@ -3229,7 +3226,7 @@
         <v>2021</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D94" s="10">
         <v>0</v>
@@ -3254,7 +3251,7 @@
         <v>2021</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D95" s="8">
         <v>0</v>
@@ -3279,7 +3276,7 @@
         <v>2021</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D96" s="10">
         <v>0</v>
@@ -3304,7 +3301,7 @@
         <v>2021</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D97" s="8">
         <v>0</v>
@@ -3329,7 +3326,7 @@
         <v>2021</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D98" s="10">
         <v>0</v>
@@ -3354,7 +3351,7 @@
         <v>2021</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D99" s="8">
         <v>0</v>
@@ -3379,7 +3376,7 @@
         <v>2021</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D100" s="10">
         <v>0</v>
@@ -3404,7 +3401,7 @@
         <v>2021</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D101" s="19">
         <v>0</v>
@@ -3429,7 +3426,7 @@
         <v>2020</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D102" s="10">
         <v>58</v>
@@ -3454,7 +3451,7 @@
         <v>2020</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D103" s="8">
         <v>109</v>
@@ -3479,7 +3476,7 @@
         <v>2020</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D104" s="10">
         <v>4</v>
@@ -3504,7 +3501,7 @@
         <v>2020</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D105" s="8">
         <v>23</v>
@@ -3529,7 +3526,7 @@
         <v>2020</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D106" s="10">
         <v>2</v>
@@ -3554,7 +3551,7 @@
         <v>2020</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D107" s="8">
         <v>94</v>
@@ -3579,7 +3576,7 @@
         <v>2020</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D108" s="10">
         <v>398</v>
@@ -3604,7 +3601,7 @@
         <v>2020</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D109" s="8">
         <v>109</v>
@@ -3629,7 +3626,7 @@
         <v>2020</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D110" s="10">
         <v>21</v>
@@ -3654,7 +3651,7 @@
         <v>2020</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D111" s="8">
         <v>28</v>
@@ -3679,7 +3676,7 @@
         <v>2020</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D112" s="10">
         <v>10</v>
@@ -3704,7 +3701,7 @@
         <v>2020</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D113" s="8">
         <v>1</v>
@@ -3729,7 +3726,7 @@
         <v>2020</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D114" s="10">
         <v>165</v>
@@ -3754,7 +3751,7 @@
         <v>2020</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D115" s="8">
         <v>73</v>
@@ -3779,7 +3776,7 @@
         <v>2020</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D116" s="10">
         <v>267</v>
@@ -3804,7 +3801,7 @@
         <v>2020</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D117" s="8">
         <v>61</v>
@@ -3829,7 +3826,7 @@
         <v>2020</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D118" s="10">
         <v>96</v>
@@ -3854,7 +3851,7 @@
         <v>2020</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D119" s="8">
         <v>27</v>
@@ -3879,7 +3876,7 @@
         <v>2020</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D120" s="10">
         <v>161</v>
@@ -3904,7 +3901,7 @@
         <v>2020</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D121" s="8">
         <v>6</v>
@@ -3929,7 +3926,7 @@
         <v>2020</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D122" s="10">
         <v>58</v>
@@ -3954,7 +3951,7 @@
         <v>2020</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D123" s="8">
         <v>24</v>
@@ -3979,7 +3976,7 @@
         <v>2020</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D124" s="10">
         <v>15</v>
@@ -4004,7 +4001,7 @@
         <v>2020</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D125" s="8">
         <v>48</v>
@@ -4029,7 +4026,7 @@
         <v>2020</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D126" s="10">
         <v>33</v>
@@ -4054,7 +4051,7 @@
         <v>2020</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D127" s="8">
         <v>116</v>
@@ -4079,7 +4076,7 @@
         <v>2020</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D128" s="10">
         <v>33</v>
@@ -4104,7 +4101,7 @@
         <v>2020</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D129" s="8">
         <v>36</v>
@@ -4129,7 +4126,7 @@
         <v>2020</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D130" s="10">
         <v>20</v>
@@ -4154,7 +4151,7 @@
         <v>2020</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D131" s="8">
         <v>38</v>
@@ -4179,7 +4176,7 @@
         <v>2020</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D132" s="10">
         <v>35</v>
@@ -4204,7 +4201,7 @@
         <v>2020</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D133" s="19">
         <v>34</v>
@@ -4229,7 +4226,7 @@
         <v>2019</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D134" s="10">
         <v>10</v>
@@ -4254,7 +4251,7 @@
         <v>2019</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D135" s="8">
         <v>3</v>
@@ -4279,7 +4276,7 @@
         <v>2019</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D136" s="10">
         <v>8</v>
@@ -4304,7 +4301,7 @@
         <v>2019</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D137" s="8">
         <v>438</v>
@@ -4329,7 +4326,7 @@
         <v>2019</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D138" s="10">
         <v>1991</v>
@@ -4354,7 +4351,7 @@
         <v>2019</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D139" s="8">
         <v>76</v>
@@ -4379,7 +4376,7 @@
         <v>2019</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D140" s="10">
         <v>0</v>
@@ -4404,7 +4401,7 @@
         <v>2019</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D141" s="8">
         <v>30</v>
@@ -4429,7 +4426,7 @@
         <v>2019</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D142" s="10">
         <v>82</v>
@@ -4454,7 +4451,7 @@
         <v>2019</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D143" s="8">
         <v>69</v>
@@ -4479,7 +4476,7 @@
         <v>2019</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D144" s="10">
         <v>277</v>
@@ -4504,7 +4501,7 @@
         <v>2019</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D145" s="8">
         <v>683</v>
@@ -4529,7 +4526,7 @@
         <v>2019</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D146" s="10">
         <v>773</v>
@@ -4554,7 +4551,7 @@
         <v>2019</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D147" s="8">
         <v>165</v>
@@ -4579,7 +4576,7 @@
         <v>2019</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D148" s="10">
         <v>816</v>
@@ -4604,7 +4601,7 @@
         <v>2019</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D149" s="8">
         <v>607</v>
@@ -4629,7 +4626,7 @@
         <v>2019</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D150" s="10">
         <v>51</v>
@@ -4654,7 +4651,7 @@
         <v>2019</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D151" s="8">
         <v>71</v>
@@ -4679,7 +4676,7 @@
         <v>2019</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D152" s="10">
         <v>129</v>
@@ -4704,7 +4701,7 @@
         <v>2019</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D153" s="8">
         <v>2219</v>
@@ -4729,7 +4726,7 @@
         <v>2019</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D154" s="10">
         <v>927</v>
@@ -4754,7 +4751,7 @@
         <v>2019</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D155" s="8">
         <v>123</v>
@@ -4779,7 +4776,7 @@
         <v>2019</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D156" s="10">
         <v>201</v>
@@ -4804,7 +4801,7 @@
         <v>2019</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D157" s="8">
         <v>336</v>
@@ -4829,7 +4826,7 @@
         <v>2019</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D158" s="10">
         <v>172</v>
@@ -4854,7 +4851,7 @@
         <v>2019</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D159" s="8">
         <v>201</v>
@@ -4879,7 +4876,7 @@
         <v>2019</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D160" s="10">
         <v>357</v>
@@ -4904,7 +4901,7 @@
         <v>2019</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D161" s="8">
         <v>101</v>
@@ -4929,7 +4926,7 @@
         <v>2019</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D162" s="10">
         <v>40</v>
@@ -4954,7 +4951,7 @@
         <v>2019</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D163" s="8">
         <v>1008</v>
@@ -4979,7 +4976,7 @@
         <v>2019</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D164" s="10">
         <v>387</v>
@@ -5004,7 +5001,7 @@
         <v>2019</v>
       </c>
       <c r="C165" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D165" s="19">
         <v>95</v>
@@ -5029,7 +5026,7 @@
         <v>2018</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D166" s="10">
         <v>510</v>
@@ -5054,7 +5051,7 @@
         <v>2018</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D167" s="8">
         <v>1130</v>
@@ -5079,7 +5076,7 @@
         <v>2018</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D168" s="10">
         <v>298</v>
@@ -5104,7 +5101,7 @@
         <v>2018</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D169" s="8">
         <v>212</v>
@@ -5129,7 +5126,7 @@
         <v>2018</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D170" s="10">
         <v>3</v>
@@ -5154,7 +5151,7 @@
         <v>2018</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D171" s="8">
         <v>1688</v>
@@ -5179,7 +5176,7 @@
         <v>2018</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D172" s="10">
         <v>3722</v>
@@ -5204,7 +5201,7 @@
         <v>2018</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D173" s="8">
         <v>1783</v>
@@ -5229,7 +5226,7 @@
         <v>2018</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D174" s="10">
         <v>949</v>
@@ -5254,7 +5251,7 @@
         <v>2018</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D175" s="8">
         <v>944</v>
@@ -5279,7 +5276,7 @@
         <v>2018</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D176" s="10">
         <v>463</v>
@@ -5304,7 +5301,7 @@
         <v>2018</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D177" s="8">
         <v>6</v>
@@ -5329,7 +5326,7 @@
         <v>2018</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D178" s="10">
         <v>499</v>
@@ -5354,7 +5351,7 @@
         <v>2018</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D179" s="8">
         <v>2790</v>
@@ -5379,7 +5376,7 @@
         <v>2018</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D180" s="10">
         <v>6746</v>
@@ -5404,7 +5401,7 @@
         <v>2018</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D181" s="8">
         <v>603</v>
@@ -5429,7 +5426,7 @@
         <v>2018</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D182" s="10">
         <v>886</v>
@@ -5454,7 +5451,7 @@
         <v>2018</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D183" s="8">
         <v>423</v>
@@ -5479,7 +5476,7 @@
         <v>2018</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D184" s="10">
         <v>3495</v>
@@ -5504,7 +5501,7 @@
         <v>2018</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D185" s="8">
         <v>18</v>
@@ -5529,7 +5526,7 @@
         <v>2018</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D186" s="10">
         <v>1260</v>
@@ -5554,7 +5551,7 @@
         <v>2018</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D187" s="8">
         <v>460</v>
@@ -5579,7 +5576,7 @@
         <v>2018</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D188" s="10">
         <v>375</v>
@@ -5604,7 +5601,7 @@
         <v>2018</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D189" s="8">
         <v>637</v>
@@ -5629,7 +5626,7 @@
         <v>2018</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D190" s="10">
         <v>3118</v>
@@ -5654,7 +5651,7 @@
         <v>2018</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D191" s="8">
         <v>3499</v>
@@ -5679,7 +5676,7 @@
         <v>2018</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D192" s="10">
         <v>929</v>
@@ -5704,7 +5701,7 @@
         <v>2018</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D193" s="8">
         <v>1016</v>
@@ -5729,7 +5726,7 @@
         <v>2018</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D194" s="10">
         <v>172</v>
@@ -5754,7 +5751,7 @@
         <v>2018</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D195" s="8">
         <v>1103</v>
@@ -5779,7 +5776,7 @@
         <v>2018</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D196" s="10">
         <v>960</v>
@@ -5804,7 +5801,7 @@
         <v>2018</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D197" s="8">
         <v>325</v>
@@ -5826,85 +5823,83 @@
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B198" s="16" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B199" s="37" t="s">
-        <v>50</v>
+      <c r="B199" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B200" s="37" t="s">
-        <v>51</v>
+      <c r="B200" s="36" t="s">
+        <v>48</v>
       </c>
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B201" s="37" t="s">
-        <v>52</v>
+      <c r="B201" s="36" t="s">
+        <v>49</v>
       </c>
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B202" s="37" t="s">
-        <v>53</v>
+      <c r="B202" s="36" t="s">
+        <v>50</v>
       </c>
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B203" s="37" t="s">
-        <v>54</v>
+      <c r="B203" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B204" s="37" t="s">
-        <v>55</v>
+      <c r="B204" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B205" s="38" t="s">
-        <v>56</v>
+      <c r="B205" s="36" t="s">
+        <v>53</v>
       </c>
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B206" s="36" t="s">
-        <v>3</v>
+      <c r="B206" s="37" t="s">
+        <v>54</v>
       </c>
       <c r="I206" s="5"/>
       <c r="J206" s="5"/>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B207" s="39" t="s">
-        <v>57</v>
+      <c r="B207" s="35" t="s">
+        <v>1</v>
       </c>
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="H208" s="3" t="s">
-        <v>0</v>
+      <c r="B208" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="I208" s="5"/>
       <c r="J208" s="5"/>
     </row>
     <row r="209" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H209" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="H209" s="3"/>
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
     </row>

--- a/Usuarios_internet.xlsx
+++ b/Usuarios_internet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\4-Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8715865C-73CE-401A-AA63-ABD2B4A284D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707BBCF8-71BC-4723-B6A4-6A4272C08221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_43 y 44" sheetId="1" r:id="rId1"/>
@@ -541,13 +541,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -555,6 +548,13 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -610,7 +610,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:H197" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:H197" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="B5:H197" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
